--- a/biology/Microbiologie/Mérozoïte/Mérozoïte.xlsx
+++ b/biology/Microbiologie/Mérozoïte/Mérozoïte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9rozo%C3%AFte</t>
+          <t>Mérozoïte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mérozoïte est une cellule fille d'un protozoaire parasite. Les mérozoïtes sont le résultat de la reproduction asexuée (schizogonie, mérogonie). Dans le cas de la coccidiose, les mérozoïtes forment la première phase du cycle de vie interne du coccidia.
 Il s'agit également de la forme hépatique du Plasmodium falciparum, l'un des parasites du paludisme (malaria).
